--- a/biology/Médecine/Métiers_du_paramédical/Métiers_du_paramédical.xlsx
+++ b/biology/Médecine/Métiers_du_paramédical/Métiers_du_paramédical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tiers_du_param%C3%A9dical</t>
+          <t>Métiers_du_paramédical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme de métier du paramédical ou profession du paramédical désigne couramment les infirmiers, les aides-soignants, les ambulanciers/paramédics, les kinésithérapeutes/physiothérapeutes, les diététiciens, les ergothérapeutes, les psychomotriciens, les manipulateurs en électroradiologie médicale, les assistants dentaires, les orthophonistes, les podologues, les techniciens de laboratoire, les orthoptistes et les opticiens.
 Au cours de la deuxième partie du vingtième siècle, des disciplines autonomes ont émergé de ces professions, comme les sciences infirmières pour les soins infirmiers ou les sciences de l'occupation pour les ergothérapeutes. Certaines pratiques professionnelles ont également évolué vers la promotion de la santé voire vers des pratiques orientées sur le travail social ou l'éducation. Ces évolutions rendent aujourd'hui l'utilisation de l'expression "professions paramédicales" inappropriées pour certaines de ces professions, comme les diététiciens, les infirmiers ou les ergothérapeutes. On leur préférera l'expression plus générale de professionnel de santé
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tiers_du_param%C3%A9dical</t>
+          <t>Métiers_du_paramédical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme de profession paramédicale n'a pas de valeur légale en France. Le Code de la santé publique français définit sous cette appellation les professions de la santé qui ne sont pas médicales, c’est-à dire qui ne sont pas exercées par un médecin, une sage-femme, un dentiste ou un pharmacien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de profession paramédicale n'a pas de valeur légale en France. Le Code de la santé publique français définit sous cette appellation les professions de la santé qui ne sont pas médicales, c’est-à dire qui ne sont pas exercées par un médecin, une sage-femme, un dentiste ou un pharmacien.
 </t>
         </is>
       </c>
